--- a/data/georgia_census/kakheti/gurjaani/average_wages.xlsx
+++ b/data/georgia_census/kakheti/gurjaani/average_wages.xlsx
@@ -1115,13 +1115,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11483CDB-B9A8-4484-8863-F0DD4F1B4C76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F69D9225-4848-4FA5-ADB4-E3BEA05C19D3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85E1DDC-965D-48F0-A036-55E10E0A48F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83332AC1-5DE7-4027-B7D7-0665C489AAB8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF48E1EF-F16D-48FD-ABBA-13048C00C42E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B2A100-F1AD-4E9B-940A-FB11F45B8C00}"/>
 </file>